--- a/Project Tracking.xlsx
+++ b/Project Tracking.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221AA350-467A-450B-BF0C-63F28489B11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BBB9C8-3341-47E9-BEF6-9563CB4965AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{615E4E03-2983-4C85-A529-8026CD190B55}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{615E4E03-2983-4C85-A529-8026CD190B55}"/>
   </bookViews>
   <sheets>
-    <sheet name="Detailing Chart" sheetId="2" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
     <sheet name="Detailing" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="25" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="43">
   <si>
     <t>Project ID</t>
   </si>
@@ -71,9 +74,6 @@
   </si>
   <si>
     <t>Date Started</t>
-  </si>
-  <si>
-    <t>Error Level</t>
   </si>
   <si>
     <t>Level</t>
@@ -149,6 +149,27 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>14: VP Check</t>
+  </si>
+  <si>
+    <t>15: Detailing Check</t>
+  </si>
+  <si>
+    <t>16: Internal Recheck</t>
+  </si>
+  <si>
+    <t>17: NP Peer Check</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Level</t>
   </si>
 </sst>
 </file>
@@ -256,7 +277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -280,184 +301,20 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="85">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -507,16 +364,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -526,12 +373,23 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -546,331 +404,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -881,78 +417,9 @@
           <color indexed="64"/>
         </top>
         <bottom/>
+        <vertical/>
+        <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1009,7 +476,7 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1020,14 +487,12 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1038,8 +503,24 @@
           <color indexed="64"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1352,7 +833,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Detailing Chart'!$B$6:$B$7</c:f>
+              <c:f>Dashboard!$B$6:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1487,7 +968,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Detailing Chart'!$B$6:$B$7</c:f>
+              <c:f>Dashboard!$B$6:$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1501,7 +982,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Detailing Chart'!$A$6:$A$7</c:f>
+              <c:f>Dashboard!$A$6:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2286,10 +1767,10 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2319,6 +1800,997 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Yengkong Sayaovong" refreshedDate="45762.525882870374" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="52" xr:uid="{8B4650F1-A6F0-4911-8116-1BAA1759A23D}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Table1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="Project ID" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="6279" maxValue="7628"/>
+    </cacheField>
+    <cacheField name="Level" numFmtId="0">
+      <sharedItems containsBlank="1" count="16">
+        <s v="4: Core and Coil  "/>
+        <s v="12: Nameplate"/>
+        <s v="10: Reactor Cleat &amp; Lead"/>
+        <s v="13: Design"/>
+        <s v="8: LV Cleat &amp; Lead  "/>
+        <s v="9: Internal"/>
+        <s v="5: Core Stacking  "/>
+        <s v="6: E-Assembly  "/>
+        <s v="7: HV Cleat &amp; Lead  "/>
+        <s v="3: Booster Cleat &amp; Lead  "/>
+        <s v="1: Air Reactor  "/>
+        <s v="11: Top Rack"/>
+        <s v="17: NP Peer Check"/>
+        <s v="14: VP Check"/>
+        <m u="1"/>
+        <s v="2: Booster  " u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date Started" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-12-16T00:00:00" maxDate="2025-04-16T00:00:00"/>
+    </cacheField>
+    <cacheField name="Complete" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-12-16T00:00:00" maxDate="2025-04-16T00:00:00"/>
+    </cacheField>
+    <cacheField name="Corrected (Initial Detailing)" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2024-12-19T00:00:00" maxDate="2025-04-16T00:00:00"/>
+    </cacheField>
+    <cacheField name="Due Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-02-15T00:00:00" maxDate="2026-03-17T00:00:00"/>
+    </cacheField>
+    <cacheField name="Send Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-04-14T00:00:00" maxDate="2026-04-29T00:00:00"/>
+    </cacheField>
+    <cacheField name="Days Remain" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="-59" maxValue="335"/>
+    </cacheField>
+    <cacheField name="Status" numFmtId="14">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Error Date" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-04-14T00:00:00" maxDate="2025-04-15T00:00:00"/>
+    </cacheField>
+    <cacheField name="Issue" numFmtId="14">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Error" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Error Tracking" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="0"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
+  <r>
+    <n v="7324"/>
+    <x v="0"/>
+    <d v="2024-12-16T00:00:00"/>
+    <d v="2024-12-16T00:00:00"/>
+    <d v="2024-12-26T00:00:00"/>
+    <d v="2025-04-03T00:00:00"/>
+    <d v="2025-05-23T00:00:00"/>
+    <n v="-12"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7324"/>
+    <x v="1"/>
+    <d v="2024-12-16T00:00:00"/>
+    <d v="2024-12-16T00:00:00"/>
+    <d v="2024-12-26T00:00:00"/>
+    <d v="2025-04-03T00:00:00"/>
+    <d v="2025-05-23T00:00:00"/>
+    <n v="-12"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7336"/>
+    <x v="2"/>
+    <d v="2024-12-18T00:00:00"/>
+    <d v="2024-12-18T00:00:00"/>
+    <d v="2024-12-19T00:00:00"/>
+    <d v="2025-04-09T00:00:00"/>
+    <d v="2025-06-11T00:00:00"/>
+    <n v="-6"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7211"/>
+    <x v="3"/>
+    <d v="2024-12-21T00:00:00"/>
+    <m/>
+    <m/>
+    <d v="2025-09-30T00:00:00"/>
+    <d v="2025-11-21T00:00:00"/>
+    <n v="168"/>
+    <s v="On Track"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7211"/>
+    <x v="1"/>
+    <d v="2024-12-28T00:00:00"/>
+    <d v="2025-02-03T00:00:00"/>
+    <d v="2025-02-03T00:00:00"/>
+    <d v="2025-09-30T00:00:00"/>
+    <d v="2025-11-21T00:00:00"/>
+    <n v="168"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6330"/>
+    <x v="4"/>
+    <d v="2024-12-31T00:00:00"/>
+    <d v="2024-12-31T00:00:00"/>
+    <d v="2025-01-06T00:00:00"/>
+    <d v="2025-10-20T00:00:00"/>
+    <d v="2025-06-26T00:00:00"/>
+    <n v="188"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7323"/>
+    <x v="0"/>
+    <d v="2025-01-03T00:00:00"/>
+    <d v="2025-01-03T00:00:00"/>
+    <d v="2025-01-06T00:00:00"/>
+    <d v="2025-05-15T00:00:00"/>
+    <d v="2025-09-10T00:00:00"/>
+    <n v="30"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6870"/>
+    <x v="5"/>
+    <d v="2025-01-03T00:00:00"/>
+    <d v="2025-01-04T00:00:00"/>
+    <d v="2025-01-05T00:00:00"/>
+    <d v="2025-07-31T00:00:00"/>
+    <d v="2025-09-15T00:00:00"/>
+    <n v="107"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6857"/>
+    <x v="6"/>
+    <d v="2025-01-08T00:00:00"/>
+    <d v="2025-01-08T00:00:00"/>
+    <d v="2025-01-13T00:00:00"/>
+    <d v="2025-04-21T00:00:00"/>
+    <d v="2025-07-22T00:00:00"/>
+    <n v="6"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6857"/>
+    <x v="7"/>
+    <d v="2025-01-08T00:00:00"/>
+    <d v="2025-01-08T00:00:00"/>
+    <d v="2025-01-13T00:00:00"/>
+    <d v="2025-04-21T00:00:00"/>
+    <d v="2025-07-22T00:00:00"/>
+    <n v="6"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7269"/>
+    <x v="4"/>
+    <d v="2025-01-15T00:00:00"/>
+    <d v="2025-01-15T00:00:00"/>
+    <d v="2025-01-16T00:00:00"/>
+    <d v="2025-04-25T00:00:00"/>
+    <d v="2025-06-27T00:00:00"/>
+    <n v="10"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7269"/>
+    <x v="2"/>
+    <d v="2025-01-15T00:00:00"/>
+    <d v="2025-01-15T00:00:00"/>
+    <d v="2025-01-16T00:00:00"/>
+    <d v="2025-04-25T00:00:00"/>
+    <d v="2025-06-27T00:00:00"/>
+    <n v="10"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6887"/>
+    <x v="5"/>
+    <d v="2025-01-17T00:00:00"/>
+    <d v="2025-01-17T00:00:00"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-05-14T00:00:00"/>
+    <d v="2025-06-27T00:00:00"/>
+    <n v="29"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7318"/>
+    <x v="6"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-05-21T00:00:00"/>
+    <d v="2025-07-30T00:00:00"/>
+    <n v="36"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7318"/>
+    <x v="8"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-05-21T00:00:00"/>
+    <d v="2025-07-30T00:00:00"/>
+    <n v="36"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7318"/>
+    <x v="1"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-01-22T00:00:00"/>
+    <d v="2025-05-21T00:00:00"/>
+    <d v="2025-07-30T00:00:00"/>
+    <n v="36"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7241"/>
+    <x v="0"/>
+    <d v="2025-01-23T00:00:00"/>
+    <d v="2025-01-23T00:00:00"/>
+    <d v="2025-01-30T00:00:00"/>
+    <d v="2025-05-30T00:00:00"/>
+    <d v="2025-08-07T00:00:00"/>
+    <n v="45"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7241"/>
+    <x v="8"/>
+    <d v="2025-01-23T00:00:00"/>
+    <d v="2025-01-23T00:00:00"/>
+    <d v="2025-01-30T00:00:00"/>
+    <d v="2025-05-30T00:00:00"/>
+    <d v="2025-08-07T00:00:00"/>
+    <n v="45"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7241"/>
+    <x v="4"/>
+    <d v="2025-01-23T00:00:00"/>
+    <d v="2025-01-23T00:00:00"/>
+    <d v="2025-01-30T00:00:00"/>
+    <d v="2025-05-30T00:00:00"/>
+    <d v="2025-08-07T00:00:00"/>
+    <n v="45"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6900"/>
+    <x v="0"/>
+    <d v="2025-01-31T00:00:00"/>
+    <d v="2025-02-03T00:00:00"/>
+    <d v="2025-02-04T00:00:00"/>
+    <d v="2025-07-21T00:00:00"/>
+    <d v="2025-09-03T00:00:00"/>
+    <n v="97"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6900"/>
+    <x v="8"/>
+    <d v="2025-01-31T00:00:00"/>
+    <d v="2025-02-03T00:00:00"/>
+    <d v="2025-02-04T00:00:00"/>
+    <d v="2025-07-21T00:00:00"/>
+    <d v="2025-09-03T00:00:00"/>
+    <n v="97"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7224"/>
+    <x v="9"/>
+    <d v="2025-02-10T00:00:00"/>
+    <d v="2025-02-11T00:00:00"/>
+    <d v="2025-02-18T00:00:00"/>
+    <d v="2025-06-17T00:00:00"/>
+    <d v="2025-08-25T00:00:00"/>
+    <n v="63"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7224"/>
+    <x v="0"/>
+    <d v="2025-02-10T00:00:00"/>
+    <d v="2025-02-11T00:00:00"/>
+    <d v="2025-02-18T00:00:00"/>
+    <d v="2025-06-17T00:00:00"/>
+    <d v="2025-08-25T00:00:00"/>
+    <n v="63"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6279"/>
+    <x v="0"/>
+    <d v="2025-02-11T00:00:00"/>
+    <d v="2025-02-18T00:00:00"/>
+    <d v="2025-02-18T00:00:00"/>
+    <d v="2025-06-12T00:00:00"/>
+    <d v="2025-08-01T00:00:00"/>
+    <n v="58"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6279"/>
+    <x v="4"/>
+    <d v="2025-02-11T00:00:00"/>
+    <d v="2025-02-18T00:00:00"/>
+    <d v="2025-02-18T00:00:00"/>
+    <d v="2025-06-12T00:00:00"/>
+    <d v="2025-08-01T00:00:00"/>
+    <n v="58"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7164"/>
+    <x v="10"/>
+    <d v="2025-02-12T00:00:00"/>
+    <d v="2025-02-25T00:00:00"/>
+    <d v="2025-02-27T00:00:00"/>
+    <d v="2025-06-20T00:00:00"/>
+    <d v="2025-09-22T00:00:00"/>
+    <n v="66"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7164"/>
+    <x v="0"/>
+    <d v="2025-02-12T00:00:00"/>
+    <d v="2025-02-25T00:00:00"/>
+    <d v="2025-02-27T00:00:00"/>
+    <d v="2025-06-20T00:00:00"/>
+    <d v="2025-09-22T00:00:00"/>
+    <n v="66"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7164"/>
+    <x v="8"/>
+    <d v="2025-02-12T00:00:00"/>
+    <d v="2025-02-25T00:00:00"/>
+    <d v="2025-02-27T00:00:00"/>
+    <d v="2025-06-20T00:00:00"/>
+    <d v="2025-09-22T00:00:00"/>
+    <n v="66"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7295"/>
+    <x v="0"/>
+    <d v="2025-03-07T00:00:00"/>
+    <d v="2025-03-11T00:00:00"/>
+    <d v="2025-03-11T00:00:00"/>
+    <d v="2025-06-23T00:00:00"/>
+    <d v="2025-08-29T00:00:00"/>
+    <n v="69"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7351"/>
+    <x v="0"/>
+    <d v="2025-03-14T00:00:00"/>
+    <d v="2025-03-14T00:00:00"/>
+    <d v="2025-03-17T00:00:00"/>
+    <d v="2025-06-23T00:00:00"/>
+    <d v="2025-08-12T00:00:00"/>
+    <n v="69"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7351"/>
+    <x v="4"/>
+    <d v="2025-03-14T00:00:00"/>
+    <d v="2025-03-14T00:00:00"/>
+    <d v="2025-03-17T00:00:00"/>
+    <d v="2025-06-23T00:00:00"/>
+    <d v="2025-08-12T00:00:00"/>
+    <n v="69"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6914"/>
+    <x v="7"/>
+    <d v="2025-03-19T00:00:00"/>
+    <d v="2025-03-26T00:00:00"/>
+    <d v="2025-04-15T00:00:00"/>
+    <d v="2025-09-19T00:00:00"/>
+    <d v="2025-12-16T00:00:00"/>
+    <n v="157"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7422"/>
+    <x v="8"/>
+    <d v="2025-03-27T00:00:00"/>
+    <d v="2025-03-31T00:00:00"/>
+    <d v="2025-04-09T00:00:00"/>
+    <d v="2025-07-16T00:00:00"/>
+    <d v="2025-09-17T00:00:00"/>
+    <n v="92"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7422"/>
+    <x v="4"/>
+    <d v="2025-03-27T00:00:00"/>
+    <d v="2025-03-31T00:00:00"/>
+    <d v="2025-04-09T00:00:00"/>
+    <d v="2025-07-16T00:00:00"/>
+    <d v="2025-09-17T00:00:00"/>
+    <n v="92"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7415"/>
+    <x v="9"/>
+    <d v="2025-03-28T00:00:00"/>
+    <d v="2025-04-09T00:00:00"/>
+    <d v="2025-04-10T00:00:00"/>
+    <d v="2025-08-21T00:00:00"/>
+    <d v="2025-10-06T00:00:00"/>
+    <n v="128"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7415"/>
+    <x v="0"/>
+    <d v="2025-03-28T00:00:00"/>
+    <d v="2025-04-09T00:00:00"/>
+    <d v="2025-04-10T00:00:00"/>
+    <d v="2025-08-21T00:00:00"/>
+    <d v="2025-10-06T00:00:00"/>
+    <n v="128"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7415"/>
+    <x v="7"/>
+    <d v="2025-03-28T00:00:00"/>
+    <d v="2025-04-10T00:00:00"/>
+    <d v="2025-04-11T00:00:00"/>
+    <d v="2025-08-21T00:00:00"/>
+    <d v="2025-10-06T00:00:00"/>
+    <n v="128"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7415"/>
+    <x v="8"/>
+    <d v="2025-03-28T00:00:00"/>
+    <d v="2025-04-09T00:00:00"/>
+    <d v="2025-04-10T00:00:00"/>
+    <d v="2025-08-21T00:00:00"/>
+    <d v="2025-10-06T00:00:00"/>
+    <n v="128"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7415"/>
+    <x v="4"/>
+    <d v="2025-03-28T00:00:00"/>
+    <d v="2025-04-09T00:00:00"/>
+    <d v="2025-04-10T00:00:00"/>
+    <d v="2025-08-21T00:00:00"/>
+    <d v="2025-10-06T00:00:00"/>
+    <n v="128"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7415"/>
+    <x v="11"/>
+    <d v="2025-03-28T00:00:00"/>
+    <d v="2025-04-09T00:00:00"/>
+    <d v="2025-04-10T00:00:00"/>
+    <d v="2025-08-21T00:00:00"/>
+    <d v="2025-10-06T00:00:00"/>
+    <n v="128"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7362"/>
+    <x v="4"/>
+    <d v="2025-04-02T00:00:00"/>
+    <d v="2025-04-07T00:00:00"/>
+    <d v="2025-04-08T00:00:00"/>
+    <d v="2025-07-08T00:00:00"/>
+    <d v="2025-08-20T00:00:00"/>
+    <n v="84"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="6471"/>
+    <x v="8"/>
+    <d v="2025-04-04T00:00:00"/>
+    <d v="2025-04-04T00:00:00"/>
+    <d v="2025-04-05T00:00:00"/>
+    <d v="2025-06-19T00:00:00"/>
+    <d v="2025-08-27T00:00:00"/>
+    <n v="65"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7443"/>
+    <x v="3"/>
+    <d v="2025-04-07T00:00:00"/>
+    <m/>
+    <m/>
+    <d v="2026-01-26T00:00:00"/>
+    <d v="2026-03-10T00:00:00"/>
+    <n v="286"/>
+    <s v="On Track"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7443"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2025-07-25T00:00:00"/>
+    <d v="2025-08-08T00:00:00"/>
+    <n v="101"/>
+    <s v="On Track"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7122"/>
+    <x v="1"/>
+    <d v="2025-03-10T00:00:00"/>
+    <d v="2025-04-15T00:00:00"/>
+    <m/>
+    <d v="2025-02-15T00:00:00"/>
+    <d v="2026-02-15T00:00:00"/>
+    <n v="-59"/>
+    <s v="Completed"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7270"/>
+    <x v="4"/>
+    <d v="2025-04-15T00:00:00"/>
+    <m/>
+    <m/>
+    <d v="2026-03-16T00:00:00"/>
+    <d v="2026-04-28T00:00:00"/>
+    <n v="335"/>
+    <s v="On Track"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7571"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2025-07-07T00:00:00"/>
+    <d v="2025-07-21T00:00:00"/>
+    <n v="83"/>
+    <s v="On Track"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7572"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2025-07-22T00:00:00"/>
+    <d v="2025-08-05T00:00:00"/>
+    <n v="98"/>
+    <s v="On Track"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7623"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2025-07-22T00:00:00"/>
+    <d v="2025-08-05T00:00:00"/>
+    <n v="98"/>
+    <s v="On Track"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7628"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <d v="2025-07-22T00:00:00"/>
+    <d v="2025-08-05T00:00:00"/>
+    <n v="98"/>
+    <s v="On Track"/>
+    <m/>
+    <m/>
+    <s v=""/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7449"/>
+    <x v="12"/>
+    <d v="2025-04-14T00:00:00"/>
+    <d v="2025-04-14T00:00:00"/>
+    <d v="2025-04-14T00:00:00"/>
+    <d v="2025-04-14T00:00:00"/>
+    <d v="2025-04-14T00:00:00"/>
+    <n v="-1"/>
+    <s v="Completed"/>
+    <d v="2025-04-14T00:00:00"/>
+    <s v="3: No Issues"/>
+    <s v="NO"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <n v="7211"/>
+    <x v="13"/>
+    <d v="2025-04-14T00:00:00"/>
+    <d v="2025-04-14T00:00:00"/>
+    <d v="2025-04-14T00:00:00"/>
+    <d v="2025-04-11T00:00:00"/>
+    <d v="2025-04-14T00:00:00"/>
+    <n v="-4"/>
+    <s v="Completed"/>
+    <d v="2025-04-14T00:00:00"/>
+    <s v="3: No Issues"/>
+    <s v="NO"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4031B204-0708-4223-B2DA-8E7C7DA8B36E}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" multipleFieldFilters="0">
+  <location ref="P1:Q16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="17">
+        <item x="10"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item m="1" x="15"/>
+        <item m="1" x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Level" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="14">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+              <x v="3"/>
+              <x v="4"/>
+              <x v="5"/>
+              <x v="6"/>
+              <x v="7"/>
+              <x v="8"/>
+              <x v="9"/>
+              <x v="10"/>
+              <x v="11"/>
+              <x v="12"/>
+              <x v="13"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F975FBF1-8117-43D5-961F-6E59068B921E}" name="Table24" displayName="Table24" ref="A2:B7" totalsRowShown="0">
   <autoFilter ref="A2:B7" xr:uid="{F975FBF1-8117-43D5-961F-6E59068B921E}"/>
@@ -2331,33 +2803,32 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D134BB80-47F3-4F36-ADB8-FDDA100A1E76}" name="Table1" displayName="Table1" ref="A1:N46" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81" totalsRowBorderDxfId="80">
-  <autoFilter ref="A1:N46" xr:uid="{D134BB80-47F3-4F36-ADB8-FDDA100A1E76}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D134BB80-47F3-4F36-ADB8-FDDA100A1E76}" name="Table1" displayName="Table1" ref="A1:M53" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:M53" xr:uid="{D134BB80-47F3-4F36-ADB8-FDDA100A1E76}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M45">
     <sortCondition ref="C1:C45"/>
   </sortState>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{B84687AB-AA53-4D62-B03B-ADF47865D34C}" name="Project ID" dataDxfId="79"/>
-    <tableColumn id="23" xr3:uid="{6FF2E4DB-D0F3-4501-B85D-5D7717550A62}" name="Level" dataDxfId="78"/>
-    <tableColumn id="24" xr3:uid="{E5571F0A-6FF8-43F0-9F51-814AF4BBD61B}" name="Date Started" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{2D7E9B12-8C5F-446F-BD3C-2C60329D4DA4}" name="Complete" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{98D2140C-18D0-4416-A449-76026CB76E25}" name="Corrected (Initial Detailing)" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{0CBB391C-D60B-4D98-B11F-E92108D13180}" name="Due Date" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{F9FAB123-DD88-4C55-A115-7638033E953E}" name="Send Date" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{1B398F5C-768F-4A97-A497-08B6323F68AA}" name="Days Remain" dataDxfId="62">
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{B84687AB-AA53-4D62-B03B-ADF47865D34C}" name="Project ID" dataDxfId="22"/>
+    <tableColumn id="23" xr3:uid="{6FF2E4DB-D0F3-4501-B85D-5D7717550A62}" name="Level" dataDxfId="21"/>
+    <tableColumn id="24" xr3:uid="{E5571F0A-6FF8-43F0-9F51-814AF4BBD61B}" name="Date Started" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{2D7E9B12-8C5F-446F-BD3C-2C60329D4DA4}" name="Complete" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{98D2140C-18D0-4416-A449-76026CB76E25}" name="Corrected (Initial Detailing)" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{0CBB391C-D60B-4D98-B11F-E92108D13180}" name="Due Date" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{F9FAB123-DD88-4C55-A115-7638033E953E}" name="Send Date" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{1B398F5C-768F-4A97-A497-08B6323F68AA}" name="Days Remain" dataDxfId="15">
       <calculatedColumnFormula>IF(ISBLANK(F2), "", F2 - TODAY())</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{AE502FB8-9E52-4320-8112-6D18EBDB573E}" name="Status" dataDxfId="63">
+    <tableColumn id="7" xr3:uid="{AE502FB8-9E52-4320-8112-6D18EBDB573E}" name="Status" dataDxfId="14">
       <calculatedColumnFormula>IF(D2&lt;&gt;"", "Completed", IF(F2&lt;TODAY(), "Overdue", "On Track"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A1B87F6A-0145-444E-A348-BEB667F2210A}" name="Error Level" dataDxfId="73"/>
-    <tableColumn id="25" xr3:uid="{6FF75708-FAD0-4507-BD05-151C42C5C178}" name="Issue" dataDxfId="72"/>
-    <tableColumn id="3" xr3:uid="{2D33B08E-3B09-4B9C-9DEA-36F8626021FA}" name="Error Date" dataDxfId="71"/>
-    <tableColumn id="11" xr3:uid="{4EF1F7F9-895F-43F3-A786-1736AF0E0A5B}" name="Error" dataDxfId="70">
+    <tableColumn id="3" xr3:uid="{2D33B08E-3B09-4B9C-9DEA-36F8626021FA}" name="Error Date" dataDxfId="13"/>
+    <tableColumn id="25" xr3:uid="{6FF75708-FAD0-4507-BD05-151C42C5C178}" name="Issue" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{4EF1F7F9-895F-43F3-A786-1736AF0E0A5B}" name="Error" dataDxfId="12">
       <calculatedColumnFormula>IF(TODAY()&lt;G2, "", IF(ISNUMBER(SEARCH("No Issue", K2)), "NO", "YES"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{013C473F-7C4C-4F85-9E50-16FD17BA70B9}" name="Error Tracking" dataDxfId="69">
-      <calculatedColumnFormula>IF(M2="Yes", IF(ISNUMBER(SEARCH("OCR", K2)), 1, IF(ISNUMBER(SEARCH("NC", K2)), 2, 0)), 0)</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{013C473F-7C4C-4F85-9E50-16FD17BA70B9}" name="Error Tracking" dataDxfId="11">
+      <calculatedColumnFormula>IF(L2="Yes", IF(ISNUMBER(SEARCH("OCR", K2)), 1, IF(ISNUMBER(SEARCH("NC", K2)), 2, 0)), 0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2682,76 +3153,207 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EF0D16-969C-4BF7-ADD0-BA33D234F9CD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:B7"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>COUNT(Table1[Project ID])</f>
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f ca="1">COUNTIF(Detailing!M2:M1000, "Yes")</f>
+        <f ca="1">COUNTIF(Detailing!M2:M1007, "Yes")</f>
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f ca="1">COUNTIF(Detailing!M2:M1000, "No")</f>
+        <f ca="1">COUNTIF(Detailing!M2:M1007, "No")</f>
         <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <f ca="1">(COUNTIF(Detailing!M2:M1000, "Yes") / COUNTA(Detailing!M2:M1000))</f>
+        <f ca="1">(COUNTIF(Detailing!M2:M1007, "Yes") / COUNTA(Detailing!M2:M1007))</f>
         <v>0</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="P6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <f ca="1">(COUNTIF(Detailing!M2:M1000, "No") / COUNTA(Detailing!M2:M1000))</f>
+        <f ca="1">(COUNTIF(Detailing!M2:M1007, "No") / COUNTA(Detailing!M2:M1007))</f>
         <v>0</v>
       </c>
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="P7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="Q2:Q15">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2759,11 +3361,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B88CFB-FC37-40CF-A866-F8418CE61140}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q6" sqref="Q6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,19 +3378,19 @@
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -2797,42 +3399,39 @@
         <v>8</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="L1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>7324</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>45642</v>
@@ -2849,7 +3448,7 @@
       <c r="G2" s="4">
         <v>45800</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="3">
         <f ca="1">IF(ISBLANK(F2), "", F2 - TODAY())</f>
         <v>-12</v>
       </c>
@@ -2859,22 +3458,21 @@
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="3" t="str">
+      <c r="L2" s="3" t="str">
         <f ca="1">IF(TODAY()&lt;G2, "", IF(ISNUMBER(SEARCH("No Issue", K2)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N2" s="3">
-        <f ca="1">IF(M2="Yes", IF(ISNUMBER(SEARCH("OCR", K2)), 1, IF(ISNUMBER(SEARCH("NC", K2)), 2, 0)), 0)</f>
+      <c r="M2" s="3">
+        <f ca="1">IF(L2="Yes", IF(ISNUMBER(SEARCH("OCR", K2)), 1, IF(ISNUMBER(SEARCH("NC", K2)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>7324</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4">
         <v>45642</v>
@@ -2891,7 +3489,7 @@
       <c r="G3" s="4">
         <v>45800</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H46" ca="1" si="0">IF(ISBLANK(F3), "", F3 - TODAY())</f>
         <v>-12</v>
       </c>
@@ -2899,24 +3497,23 @@
         <f t="shared" ref="I3:I46" ca="1" si="1">IF(D3&lt;&gt;"", "Completed", IF(F3&lt;TODAY(), "Overdue", "On Track"))</f>
         <v>Completed</v>
       </c>
-      <c r="J3" s="8"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="3" t="str">
-        <f t="shared" ref="M3:M45" ca="1" si="2">IF(TODAY()&lt;G3, "", IF(ISNUMBER(SEARCH("No Issue", K3)), "NO", "YES"))</f>
+      <c r="L3" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G3, "", IF(ISNUMBER(SEARCH("No Issue", K3)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N3" s="3">
-        <f t="shared" ref="N3:N45" ca="1" si="3">IF(M3="Yes", IF(ISNUMBER(SEARCH("OCR", K3)), 1, IF(ISNUMBER(SEARCH("NC", K3)), 2, 0)), 0)</f>
+      <c r="M3" s="3">
+        <f ca="1">IF(L3="Yes", IF(ISNUMBER(SEARCH("OCR", K3)), 1, IF(ISNUMBER(SEARCH("NC", K3)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>7336</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="4">
         <v>45644</v>
@@ -2933,7 +3530,7 @@
       <c r="G4" s="4">
         <v>45819</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-6</v>
       </c>
@@ -2943,22 +3540,21 @@
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L4" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G4, "", IF(ISNUMBER(SEARCH("No Issue", K4)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N4" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M4" s="3">
+        <f ca="1">IF(L4="Yes", IF(ISNUMBER(SEARCH("OCR", K4)), 1, IF(ISNUMBER(SEARCH("NC", K4)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>7211</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4">
         <v>45647</v>
@@ -2971,7 +3567,7 @@
       <c r="G5" s="4">
         <v>45982</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>168</v>
       </c>
@@ -2981,22 +3577,21 @@
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L5" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G5, "", IF(ISNUMBER(SEARCH("No Issue", K5)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N5" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M5" s="3">
+        <f ca="1">IF(L5="Yes", IF(ISNUMBER(SEARCH("OCR", K5)), 1, IF(ISNUMBER(SEARCH("NC", K5)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>7211</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>45654</v>
@@ -3013,7 +3608,7 @@
       <c r="G6" s="4">
         <v>45982</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>168</v>
       </c>
@@ -3021,24 +3616,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J6" s="8"/>
+      <c r="J6" s="4"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L6" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G6, "", IF(ISNUMBER(SEARCH("No Issue", K6)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N6" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M6" s="3">
+        <f ca="1">IF(L6="Yes", IF(ISNUMBER(SEARCH("OCR", K6)), 1, IF(ISNUMBER(SEARCH("NC", K6)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6330</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="4">
         <v>45657</v>
@@ -3055,7 +3649,7 @@
       <c r="G7" s="4">
         <v>45834</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>188</v>
       </c>
@@ -3065,22 +3659,21 @@
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L7" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G7, "", IF(ISNUMBER(SEARCH("No Issue", K7)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N7" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M7" s="3">
+        <f ca="1">IF(L7="Yes", IF(ISNUMBER(SEARCH("OCR", K7)), 1, IF(ISNUMBER(SEARCH("NC", K7)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7323</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
         <v>45660</v>
@@ -3097,7 +3690,7 @@
       <c r="G8" s="4">
         <v>45910</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
@@ -3107,22 +3700,21 @@
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L8" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G8, "", IF(ISNUMBER(SEARCH("No Issue", K8)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N8" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M8" s="3">
+        <f ca="1">IF(L8="Yes", IF(ISNUMBER(SEARCH("OCR", K8)), 1, IF(ISNUMBER(SEARCH("NC", K8)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6870</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
         <v>45660</v>
@@ -3139,7 +3731,7 @@
       <c r="G9" s="4">
         <v>45915</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>107</v>
       </c>
@@ -3149,22 +3741,21 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L9" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G9, "", IF(ISNUMBER(SEARCH("No Issue", K9)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N9" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M9" s="3">
+        <f ca="1">IF(L9="Yes", IF(ISNUMBER(SEARCH("OCR", K9)), 1, IF(ISNUMBER(SEARCH("NC", K9)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6857</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4">
         <v>45665</v>
@@ -3181,7 +3772,7 @@
       <c r="G10" s="4">
         <v>45860</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
@@ -3191,22 +3782,21 @@
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L10" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G10, "", IF(ISNUMBER(SEARCH("No Issue", K10)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N10" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M10" s="3">
+        <f ca="1">IF(L10="Yes", IF(ISNUMBER(SEARCH("OCR", K10)), 1, IF(ISNUMBER(SEARCH("NC", K10)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6857</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4">
         <v>45665</v>
@@ -3223,7 +3813,7 @@
       <c r="G11" s="4">
         <v>45860</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
@@ -3231,24 +3821,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="4"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L11" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G11, "", IF(ISNUMBER(SEARCH("No Issue", K11)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N11" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M11" s="3">
+        <f ca="1">IF(L11="Yes", IF(ISNUMBER(SEARCH("OCR", K11)), 1, IF(ISNUMBER(SEARCH("NC", K11)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>7269</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
         <v>45672</v>
@@ -3265,7 +3854,7 @@
       <c r="G12" s="4">
         <v>45835</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
@@ -3275,22 +3864,21 @@
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L12" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G12, "", IF(ISNUMBER(SEARCH("No Issue", K12)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N12" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M12" s="3">
+        <f ca="1">IF(L12="Yes", IF(ISNUMBER(SEARCH("OCR", K12)), 1, IF(ISNUMBER(SEARCH("NC", K12)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>7269</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4">
         <v>45672</v>
@@ -3307,7 +3895,7 @@
       <c r="G13" s="4">
         <v>45835</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
       </c>
@@ -3315,24 +3903,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="4"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L13" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G13, "", IF(ISNUMBER(SEARCH("No Issue", K13)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N13" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M13" s="3">
+        <f ca="1">IF(L13="Yes", IF(ISNUMBER(SEARCH("OCR", K13)), 1, IF(ISNUMBER(SEARCH("NC", K13)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6887</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4">
         <v>45674</v>
@@ -3349,7 +3936,7 @@
       <c r="G14" s="4">
         <v>45835</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>29</v>
       </c>
@@ -3359,22 +3946,21 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L14" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G14, "", IF(ISNUMBER(SEARCH("No Issue", K14)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N14" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M14" s="3">
+        <f ca="1">IF(L14="Yes", IF(ISNUMBER(SEARCH("OCR", K14)), 1, IF(ISNUMBER(SEARCH("NC", K14)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>7318</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="4">
         <v>45679</v>
@@ -3391,7 +3977,7 @@
       <c r="G15" s="4">
         <v>45868</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
@@ -3401,22 +3987,21 @@
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L15" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G15, "", IF(ISNUMBER(SEARCH("No Issue", K15)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N15" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M15" s="3">
+        <f ca="1">IF(L15="Yes", IF(ISNUMBER(SEARCH("OCR", K15)), 1, IF(ISNUMBER(SEARCH("NC", K15)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7318</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4">
         <v>45679</v>
@@ -3433,7 +4018,7 @@
       <c r="G16" s="4">
         <v>45868</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
@@ -3441,24 +4026,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="4"/>
       <c r="K16" s="8"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L16" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G16, "", IF(ISNUMBER(SEARCH("No Issue", K16)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N16" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M16" s="3">
+        <f ca="1">IF(L16="Yes", IF(ISNUMBER(SEARCH("OCR", K16)), 1, IF(ISNUMBER(SEARCH("NC", K16)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>7318</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4">
         <v>45679</v>
@@ -3475,7 +4059,7 @@
       <c r="G17" s="4">
         <v>45868</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>36</v>
       </c>
@@ -3483,24 +4067,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="4"/>
       <c r="K17" s="8"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L17" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G17, "", IF(ISNUMBER(SEARCH("No Issue", K17)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N17" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M17" s="3">
+        <f ca="1">IF(L17="Yes", IF(ISNUMBER(SEARCH("OCR", K17)), 1, IF(ISNUMBER(SEARCH("NC", K17)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7241</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="4">
         <v>45680</v>
@@ -3517,7 +4100,7 @@
       <c r="G18" s="4">
         <v>45876</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
@@ -3527,22 +4110,21 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L18" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G18, "", IF(ISNUMBER(SEARCH("No Issue", K18)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N18" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M18" s="3">
+        <f ca="1">IF(L18="Yes", IF(ISNUMBER(SEARCH("OCR", K18)), 1, IF(ISNUMBER(SEARCH("NC", K18)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>7241</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4">
         <v>45680</v>
@@ -3559,7 +4141,7 @@
       <c r="G19" s="4">
         <v>45876</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
@@ -3567,24 +4149,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="4"/>
       <c r="K19" s="8"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L19" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G19, "", IF(ISNUMBER(SEARCH("No Issue", K19)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N19" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M19" s="3">
+        <f ca="1">IF(L19="Yes", IF(ISNUMBER(SEARCH("OCR", K19)), 1, IF(ISNUMBER(SEARCH("NC", K19)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>7241</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="4">
         <v>45680</v>
@@ -3601,7 +4182,7 @@
       <c r="G20" s="4">
         <v>45876</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>45</v>
       </c>
@@ -3609,24 +4190,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="4"/>
       <c r="K20" s="8"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L20" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G20, "", IF(ISNUMBER(SEARCH("No Issue", K20)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N20" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M20" s="3">
+        <f ca="1">IF(L20="Yes", IF(ISNUMBER(SEARCH("OCR", K20)), 1, IF(ISNUMBER(SEARCH("NC", K20)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>6900</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="4">
         <v>45688</v>
@@ -3643,7 +4223,7 @@
       <c r="G21" s="4">
         <v>45903</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>97</v>
       </c>
@@ -3653,22 +4233,21 @@
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L21" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G21, "", IF(ISNUMBER(SEARCH("No Issue", K21)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N21" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M21" s="3">
+        <f ca="1">IF(L21="Yes", IF(ISNUMBER(SEARCH("OCR", K21)), 1, IF(ISNUMBER(SEARCH("NC", K21)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>6900</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="4">
         <v>45688</v>
@@ -3685,7 +4264,7 @@
       <c r="G22" s="4">
         <v>45903</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>97</v>
       </c>
@@ -3693,24 +4272,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="8"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L22" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G22, "", IF(ISNUMBER(SEARCH("No Issue", K22)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N22" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M22" s="3">
+        <f ca="1">IF(L22="Yes", IF(ISNUMBER(SEARCH("OCR", K22)), 1, IF(ISNUMBER(SEARCH("NC", K22)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>7224</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="4">
         <v>45698</v>
@@ -3727,7 +4305,7 @@
       <c r="G23" s="4">
         <v>45894</v>
       </c>
-      <c r="H23" s="9">
+      <c r="H23" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
@@ -3737,22 +4315,21 @@
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L23" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G23, "", IF(ISNUMBER(SEARCH("No Issue", K23)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N23" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M23" s="3">
+        <f ca="1">IF(L23="Yes", IF(ISNUMBER(SEARCH("OCR", K23)), 1, IF(ISNUMBER(SEARCH("NC", K23)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7224</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="4">
         <v>45698</v>
@@ -3769,7 +4346,7 @@
       <c r="G24" s="4">
         <v>45894</v>
       </c>
-      <c r="H24" s="9">
+      <c r="H24" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>63</v>
       </c>
@@ -3777,24 +4354,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L24" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G24, "", IF(ISNUMBER(SEARCH("No Issue", K24)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N24" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M24" s="3">
+        <f ca="1">IF(L24="Yes", IF(ISNUMBER(SEARCH("OCR", K24)), 1, IF(ISNUMBER(SEARCH("NC", K24)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6279</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="4">
         <v>45699</v>
@@ -3811,7 +4387,7 @@
       <c r="G25" s="4">
         <v>45870</v>
       </c>
-      <c r="H25" s="9">
+      <c r="H25" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
@@ -3821,22 +4397,21 @@
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L25" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G25, "", IF(ISNUMBER(SEARCH("No Issue", K25)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N25" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M25" s="3">
+        <f ca="1">IF(L25="Yes", IF(ISNUMBER(SEARCH("OCR", K25)), 1, IF(ISNUMBER(SEARCH("NC", K25)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6279</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="4">
         <v>45699</v>
@@ -3853,7 +4428,7 @@
       <c r="G26" s="4">
         <v>45870</v>
       </c>
-      <c r="H26" s="9">
+      <c r="H26" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>58</v>
       </c>
@@ -3861,24 +4436,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J26" s="8"/>
+      <c r="J26" s="4"/>
       <c r="K26" s="8"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L26" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G26, "", IF(ISNUMBER(SEARCH("No Issue", K26)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N26" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M26" s="3">
+        <f ca="1">IF(L26="Yes", IF(ISNUMBER(SEARCH("OCR", K26)), 1, IF(ISNUMBER(SEARCH("NC", K26)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>7164</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="4">
         <v>45700</v>
@@ -3895,7 +4469,7 @@
       <c r="G27" s="4">
         <v>45922</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
@@ -3905,22 +4479,21 @@
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L27" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G27, "", IF(ISNUMBER(SEARCH("No Issue", K27)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N27" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M27" s="3">
+        <f ca="1">IF(L27="Yes", IF(ISNUMBER(SEARCH("OCR", K27)), 1, IF(ISNUMBER(SEARCH("NC", K27)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>7164</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="4">
         <v>45700</v>
@@ -3937,7 +4510,7 @@
       <c r="G28" s="4">
         <v>45922</v>
       </c>
-      <c r="H28" s="9">
+      <c r="H28" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
@@ -3945,24 +4518,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="8"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L28" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G28, "", IF(ISNUMBER(SEARCH("No Issue", K28)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N28" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M28" s="3">
+        <f ca="1">IF(L28="Yes", IF(ISNUMBER(SEARCH("OCR", K28)), 1, IF(ISNUMBER(SEARCH("NC", K28)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>7164</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="4">
         <v>45700</v>
@@ -3979,7 +4551,7 @@
       <c r="G29" s="4">
         <v>45922</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>66</v>
       </c>
@@ -3987,24 +4559,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="8"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L29" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G29, "", IF(ISNUMBER(SEARCH("No Issue", K29)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N29" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M29" s="3">
+        <f ca="1">IF(L29="Yes", IF(ISNUMBER(SEARCH("OCR", K29)), 1, IF(ISNUMBER(SEARCH("NC", K29)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>7295</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="4">
         <v>45723</v>
@@ -4021,7 +4592,7 @@
       <c r="G30" s="4">
         <v>45898</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
@@ -4031,22 +4602,21 @@
       </c>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L30" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G30, "", IF(ISNUMBER(SEARCH("No Issue", K30)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N30" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M30" s="3">
+        <f ca="1">IF(L30="Yes", IF(ISNUMBER(SEARCH("OCR", K30)), 1, IF(ISNUMBER(SEARCH("NC", K30)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>7351</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="4">
         <v>45730</v>
@@ -4063,7 +4633,7 @@
       <c r="G31" s="4">
         <v>45881</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
@@ -4073,22 +4643,21 @@
       </c>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L31" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G31, "", IF(ISNUMBER(SEARCH("No Issue", K31)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N31" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M31" s="3">
+        <f ca="1">IF(L31="Yes", IF(ISNUMBER(SEARCH("OCR", K31)), 1, IF(ISNUMBER(SEARCH("NC", K31)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>7351</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="4">
         <v>45730</v>
@@ -4105,7 +4674,7 @@
       <c r="G32" s="4">
         <v>45881</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
@@ -4113,24 +4682,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="4"/>
       <c r="K32" s="8"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L32" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G32, "", IF(ISNUMBER(SEARCH("No Issue", K32)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N32" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M32" s="3">
+        <f ca="1">IF(L32="Yes", IF(ISNUMBER(SEARCH("OCR", K32)), 1, IF(ISNUMBER(SEARCH("NC", K32)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>6914</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4">
         <v>45735</v>
@@ -4147,7 +4715,7 @@
       <c r="G33" s="4">
         <v>46007</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>157</v>
       </c>
@@ -4157,22 +4725,21 @@
       </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L33" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G33, "", IF(ISNUMBER(SEARCH("No Issue", K33)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N33" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M33" s="3">
+        <f ca="1">IF(L33="Yes", IF(ISNUMBER(SEARCH("OCR", K33)), 1, IF(ISNUMBER(SEARCH("NC", K33)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>7422</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4">
         <v>45743</v>
@@ -4189,7 +4756,7 @@
       <c r="G34" s="4">
         <v>45917</v>
       </c>
-      <c r="H34" s="9">
+      <c r="H34" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>92</v>
       </c>
@@ -4199,22 +4766,21 @@
       </c>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L34" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G34, "", IF(ISNUMBER(SEARCH("No Issue", K34)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N34" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M34" s="3">
+        <f ca="1">IF(L34="Yes", IF(ISNUMBER(SEARCH("OCR", K34)), 1, IF(ISNUMBER(SEARCH("NC", K34)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>7422</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="4">
         <v>45743</v>
@@ -4231,7 +4797,7 @@
       <c r="G35" s="4">
         <v>45917</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>92</v>
       </c>
@@ -4239,24 +4805,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J35" s="8"/>
+      <c r="J35" s="4"/>
       <c r="K35" s="8"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L35" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G35, "", IF(ISNUMBER(SEARCH("No Issue", K35)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N35" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M35" s="3">
+        <f ca="1">IF(L35="Yes", IF(ISNUMBER(SEARCH("OCR", K35)), 1, IF(ISNUMBER(SEARCH("NC", K35)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>7415</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="4">
         <v>45744</v>
@@ -4273,7 +4838,7 @@
       <c r="G36" s="4">
         <v>45936</v>
       </c>
-      <c r="H36" s="9">
+      <c r="H36" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>128</v>
       </c>
@@ -4283,22 +4848,21 @@
       </c>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L36" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G36, "", IF(ISNUMBER(SEARCH("No Issue", K36)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N36" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M36" s="3">
+        <f ca="1">IF(L36="Yes", IF(ISNUMBER(SEARCH("OCR", K36)), 1, IF(ISNUMBER(SEARCH("NC", K36)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>7415</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="4">
         <v>45744</v>
@@ -4315,7 +4879,7 @@
       <c r="G37" s="4">
         <v>45936</v>
       </c>
-      <c r="H37" s="9">
+      <c r="H37" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>128</v>
       </c>
@@ -4323,24 +4887,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J37" s="8"/>
+      <c r="J37" s="4"/>
       <c r="K37" s="8"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L37" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G37, "", IF(ISNUMBER(SEARCH("No Issue", K37)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N37" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M37" s="3">
+        <f ca="1">IF(L37="Yes", IF(ISNUMBER(SEARCH("OCR", K37)), 1, IF(ISNUMBER(SEARCH("NC", K37)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>7415</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="4">
         <v>45744</v>
@@ -4357,7 +4920,7 @@
       <c r="G38" s="4">
         <v>45936</v>
       </c>
-      <c r="H38" s="9">
+      <c r="H38" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>128</v>
       </c>
@@ -4365,24 +4928,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J38" s="8"/>
+      <c r="J38" s="4"/>
       <c r="K38" s="8"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L38" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G38, "", IF(ISNUMBER(SEARCH("No Issue", K38)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N38" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M38" s="3">
+        <f ca="1">IF(L38="Yes", IF(ISNUMBER(SEARCH("OCR", K38)), 1, IF(ISNUMBER(SEARCH("NC", K38)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>7415</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="4">
         <v>45744</v>
@@ -4399,7 +4961,7 @@
       <c r="G39" s="4">
         <v>45936</v>
       </c>
-      <c r="H39" s="9">
+      <c r="H39" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>128</v>
       </c>
@@ -4407,24 +4969,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J39" s="8"/>
+      <c r="J39" s="4"/>
       <c r="K39" s="8"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L39" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G39, "", IF(ISNUMBER(SEARCH("No Issue", K39)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N39" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M39" s="3">
+        <f ca="1">IF(L39="Yes", IF(ISNUMBER(SEARCH("OCR", K39)), 1, IF(ISNUMBER(SEARCH("NC", K39)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>7415</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40" s="4">
         <v>45744</v>
@@ -4441,7 +5002,7 @@
       <c r="G40" s="4">
         <v>45936</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>128</v>
       </c>
@@ -4449,24 +5010,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J40" s="8"/>
+      <c r="J40" s="4"/>
       <c r="K40" s="8"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L40" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G40, "", IF(ISNUMBER(SEARCH("No Issue", K40)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N40" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M40" s="3">
+        <f ca="1">IF(L40="Yes", IF(ISNUMBER(SEARCH("OCR", K40)), 1, IF(ISNUMBER(SEARCH("NC", K40)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>7415</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4">
         <v>45744</v>
@@ -4483,7 +5043,7 @@
       <c r="G41" s="4">
         <v>45936</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>128</v>
       </c>
@@ -4491,24 +5051,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J41" s="8"/>
+      <c r="J41" s="4"/>
       <c r="K41" s="8"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L41" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G41, "", IF(ISNUMBER(SEARCH("No Issue", K41)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N41" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M41" s="3">
+        <f ca="1">IF(L41="Yes", IF(ISNUMBER(SEARCH("OCR", K41)), 1, IF(ISNUMBER(SEARCH("NC", K41)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>7362</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C42" s="4">
         <v>45749</v>
@@ -4525,7 +5084,7 @@
       <c r="G42" s="4">
         <v>45889</v>
       </c>
-      <c r="H42" s="9">
+      <c r="H42" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>84</v>
       </c>
@@ -4535,22 +5094,21 @@
       </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L42" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G42, "", IF(ISNUMBER(SEARCH("No Issue", K42)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N42" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M42" s="3">
+        <f ca="1">IF(L42="Yes", IF(ISNUMBER(SEARCH("OCR", K42)), 1, IF(ISNUMBER(SEARCH("NC", K42)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>6471</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C43" s="4">
         <v>45751</v>
@@ -4567,7 +5125,7 @@
       <c r="G43" s="4">
         <v>45896</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>65</v>
       </c>
@@ -4577,22 +5135,21 @@
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L43" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G43, "", IF(ISNUMBER(SEARCH("No Issue", K43)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N43" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M43" s="3">
+        <f ca="1">IF(L43="Yes", IF(ISNUMBER(SEARCH("OCR", K43)), 1, IF(ISNUMBER(SEARCH("NC", K43)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>7443</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="4">
         <v>45754</v>
@@ -4605,7 +5162,7 @@
       <c r="G44" s="4">
         <v>46091</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>286</v>
       </c>
@@ -4615,22 +5172,21 @@
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L44" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G44, "", IF(ISNUMBER(SEARCH("No Issue", K44)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N44" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M44" s="3">
+        <f ca="1">IF(L44="Yes", IF(ISNUMBER(SEARCH("OCR", K44)), 1, IF(ISNUMBER(SEARCH("NC", K44)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>7443</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -4641,7 +5197,7 @@
       <c r="G45" s="4">
         <v>45877</v>
       </c>
-      <c r="H45" s="9">
+      <c r="H45" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>101</v>
       </c>
@@ -4649,24 +5205,23 @@
         <f t="shared" ca="1" si="1"/>
         <v>On Track</v>
       </c>
-      <c r="J45" s="8"/>
+      <c r="J45" s="4"/>
       <c r="K45" s="8"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="3" t="str">
-        <f t="shared" ca="1" si="2"/>
+      <c r="L45" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G45, "", IF(ISNUMBER(SEARCH("No Issue", K45)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N45" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="M45" s="3">
+        <f ca="1">IF(L45="Yes", IF(ISNUMBER(SEARCH("OCR", K45)), 1, IF(ISNUMBER(SEARCH("NC", K45)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>7122</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4">
         <v>45726</v>
@@ -4681,7 +5236,7 @@
       <c r="G46" s="4">
         <v>46068</v>
       </c>
-      <c r="H46" s="9">
+      <c r="H46" s="3">
         <f t="shared" ca="1" si="0"/>
         <v>-59</v>
       </c>
@@ -4689,20 +5244,286 @@
         <f t="shared" ca="1" si="1"/>
         <v>Completed</v>
       </c>
-      <c r="J46" s="8"/>
+      <c r="J46" s="4"/>
       <c r="K46" s="8"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="3" t="str">
+      <c r="L46" s="3" t="str">
         <f ca="1">IF(TODAY()&lt;G46, "", IF(ISNUMBER(SEARCH("No Issue", K46)), "NO", "YES"))</f>
         <v/>
       </c>
-      <c r="N46" s="3">
-        <f ca="1">IF(M46="Yes", IF(ISNUMBER(SEARCH("OCR", K46)), 1, IF(ISNUMBER(SEARCH("NC", K46)), 2, 0)), 0)</f>
+      <c r="M46" s="3">
+        <f ca="1">IF(L46="Yes", IF(ISNUMBER(SEARCH("OCR", K46)), 1, IF(ISNUMBER(SEARCH("NC", K46)), 2, 0)), 0)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>7270</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4">
+        <v>45762</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4">
+        <v>46097</v>
+      </c>
+      <c r="G47" s="4">
+        <v>46140</v>
+      </c>
+      <c r="H47" s="9">
+        <f ca="1">IF(ISBLANK(F47), "", F47 - TODAY())</f>
+        <v>335</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f ca="1">IF(D47&lt;&gt;"", "Completed", IF(F47&lt;TODAY(), "Overdue", "On Track"))</f>
+        <v>On Track</v>
+      </c>
+      <c r="J47" s="4"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G47, "", IF(ISNUMBER(SEARCH("No Issue", K47)), "NO", "YES"))</f>
+        <v/>
+      </c>
+      <c r="M47" s="3">
+        <f ca="1">IF(L47="Yes", IF(ISNUMBER(SEARCH("OCR", K47)), 1, IF(ISNUMBER(SEARCH("NC", K47)), 2, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>7571</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4">
+        <v>45845</v>
+      </c>
+      <c r="G48" s="4">
+        <v>45859</v>
+      </c>
+      <c r="H48" s="9">
+        <f ca="1">IF(ISBLANK(F48), "", F48 - TODAY())</f>
+        <v>83</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f ca="1">IF(D48&lt;&gt;"", "Completed", IF(F48&lt;TODAY(), "Overdue", "On Track"))</f>
+        <v>On Track</v>
+      </c>
+      <c r="J48" s="4"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G48, "", IF(ISNUMBER(SEARCH("No Issue", K48)), "NO", "YES"))</f>
+        <v/>
+      </c>
+      <c r="M48" s="3">
+        <f ca="1">IF(L48="Yes", IF(ISNUMBER(SEARCH("OCR", K48)), 1, IF(ISNUMBER(SEARCH("NC", K48)), 2, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>7572</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4">
+        <v>45860</v>
+      </c>
+      <c r="G49" s="4">
+        <v>45874</v>
+      </c>
+      <c r="H49" s="9">
+        <f ca="1">IF(ISBLANK(F49), "", F49 - TODAY())</f>
+        <v>98</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f ca="1">IF(D49&lt;&gt;"", "Completed", IF(F49&lt;TODAY(), "Overdue", "On Track"))</f>
+        <v>On Track</v>
+      </c>
+      <c r="J49" s="4"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G49, "", IF(ISNUMBER(SEARCH("No Issue", K49)), "NO", "YES"))</f>
+        <v/>
+      </c>
+      <c r="M49" s="3">
+        <f ca="1">IF(L49="Yes", IF(ISNUMBER(SEARCH("OCR", K49)), 1, IF(ISNUMBER(SEARCH("NC", K49)), 2, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>7623</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4">
+        <v>45860</v>
+      </c>
+      <c r="G50" s="4">
+        <v>45874</v>
+      </c>
+      <c r="H50" s="9">
+        <f ca="1">IF(ISBLANK(F50), "", F50 - TODAY())</f>
+        <v>98</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f ca="1">IF(D50&lt;&gt;"", "Completed", IF(F50&lt;TODAY(), "Overdue", "On Track"))</f>
+        <v>On Track</v>
+      </c>
+      <c r="J50" s="4"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G50, "", IF(ISNUMBER(SEARCH("No Issue", K50)), "NO", "YES"))</f>
+        <v/>
+      </c>
+      <c r="M50" s="3">
+        <f ca="1">IF(L50="Yes", IF(ISNUMBER(SEARCH("OCR", K50)), 1, IF(ISNUMBER(SEARCH("NC", K50)), 2, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>7628</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4">
+        <v>45860</v>
+      </c>
+      <c r="G51" s="4">
+        <v>45874</v>
+      </c>
+      <c r="H51" s="9">
+        <f ca="1">IF(ISBLANK(F51), "", F51 - TODAY())</f>
+        <v>98</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f ca="1">IF(D51&lt;&gt;"", "Completed", IF(F51&lt;TODAY(), "Overdue", "On Track"))</f>
+        <v>On Track</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G51, "", IF(ISNUMBER(SEARCH("No Issue", K51)), "NO", "YES"))</f>
+        <v/>
+      </c>
+      <c r="M51" s="3">
+        <f ca="1">IF(L51="Yes", IF(ISNUMBER(SEARCH("OCR", K51)), 1, IF(ISNUMBER(SEARCH("NC", K51)), 2, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>7449</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="4">
+        <v>45761</v>
+      </c>
+      <c r="D52" s="4">
+        <v>45761</v>
+      </c>
+      <c r="E52" s="4">
+        <v>45761</v>
+      </c>
+      <c r="F52" s="4">
+        <v>45761</v>
+      </c>
+      <c r="G52" s="4">
+        <v>45761</v>
+      </c>
+      <c r="H52" s="9">
+        <f ca="1">IF(ISBLANK(F52), "", F52 - TODAY())</f>
+        <v>-1</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f ca="1">IF(D52&lt;&gt;"", "Completed", IF(F52&lt;TODAY(), "Overdue", "On Track"))</f>
+        <v>Completed</v>
+      </c>
+      <c r="J52" s="4">
+        <v>45761</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G52, "", IF(ISNUMBER(SEARCH("No Issue", K52)), "NO", "YES"))</f>
+        <v>NO</v>
+      </c>
+      <c r="M52" s="3">
+        <f ca="1">IF(L52="Yes", IF(ISNUMBER(SEARCH("OCR", K52)), 1, IF(ISNUMBER(SEARCH("NC", K52)), 2, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>7211</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="4">
+        <v>45761</v>
+      </c>
+      <c r="D53" s="4">
+        <v>45761</v>
+      </c>
+      <c r="E53" s="4">
+        <v>45761</v>
+      </c>
+      <c r="F53" s="4">
+        <v>45758</v>
+      </c>
+      <c r="G53" s="4">
+        <v>45761</v>
+      </c>
+      <c r="H53" s="9">
+        <f ca="1">IF(ISBLANK(F53), "", F53 - TODAY())</f>
+        <v>-4</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f ca="1">IF(D53&lt;&gt;"", "Completed", IF(F53&lt;TODAY(), "Overdue", "On Track"))</f>
+        <v>Completed</v>
+      </c>
+      <c r="J53" s="4">
+        <v>45761</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="3" t="str">
+        <f ca="1">IF(TODAY()&lt;G53, "", IF(ISNUMBER(SEARCH("No Issue", K53)), "NO", "YES"))</f>
+        <v>NO</v>
+      </c>
+      <c r="M53" s="3">
+        <f ca="1">IF(L53="Yes", IF(ISNUMBER(SEARCH("OCR", K53)), 1, IF(ISNUMBER(SEARCH("NC", K53)), 2, 0)), 0)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:N42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:M42">
     <sortCondition ref="C1:C118"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4711,18 +5532,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
     <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C46">
-    <cfRule type="colorScale" priority="433">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4745,19 +5554,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D46">
-    <cfRule type="colorScale" priority="435">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D47:D1048576">
+  <conditionalFormatting sqref="D54:D1048576">
     <cfRule type="colorScale" priority="269">
       <colorScale>
         <cfvo type="min"/>
@@ -4781,19 +5578,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E46">
-    <cfRule type="colorScale" priority="437">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E47:F1048576">
+  <conditionalFormatting sqref="E54:F1048576">
     <cfRule type="colorScale" priority="273">
       <colorScale>
         <cfvo type="min"/>
@@ -4817,8 +5602,43 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F46">
-    <cfRule type="colorScale" priority="439">
+  <conditionalFormatting sqref="H2:H53">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>$I2="Overdue"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>$I2="On Track"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
+      <formula>$I2="Completed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I53">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="late">
+      <formula>NOT(ISERROR(SEARCH("late",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="on track">
+      <formula>NOT(ISERROR(SEARCH("on track",I2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="completed">
+      <formula>NOT(ISERROR(SEARCH("completed",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K2:K53">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="Nameplate">
+      <formula>NOT(ISERROR(SEARCH("Nameplate",K2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L53">
+    <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="NO">
+      <formula>NOT(ISERROR(SEARCH("NO",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="21" operator="containsText" text="YES">
+      <formula>NOT(ISERROR(SEARCH("YES",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:I1 K1">
+    <cfRule type="colorScale" priority="454">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4829,8 +5649,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:K1">
-    <cfRule type="colorScale" priority="14">
+  <conditionalFormatting sqref="G54:I1048576 L54:L1048576">
+    <cfRule type="colorScale" priority="456">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4841,8 +5661,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:G46 I2:K46">
-    <cfRule type="colorScale" priority="441">
+  <conditionalFormatting sqref="C2:C53">
+    <cfRule type="colorScale" priority="470">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4853,8 +5673,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G47:K1048576">
-    <cfRule type="colorScale" priority="278">
+  <conditionalFormatting sqref="D2:D53">
+    <cfRule type="colorScale" priority="471">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4865,13 +5685,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K46">
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Nameplate">
-      <formula>NOT(ISERROR(SEARCH("Nameplate",J2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L46">
-    <cfRule type="colorScale" priority="443">
+  <conditionalFormatting sqref="E2:E53">
+    <cfRule type="colorScale" priority="472">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4882,34 +5697,40 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M46">
-    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="NO">
-      <formula>NOT(ISERROR(SEARCH("NO",M1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="YES">
-      <formula>NOT(ISERROR(SEARCH("YES",M1)))</formula>
+  <conditionalFormatting sqref="F2:F53">
+    <cfRule type="colorScale" priority="473">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I46">
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="late">
-      <formula>NOT(ISERROR(SEARCH("late",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="on track">
-      <formula>NOT(ISERROR(SEARCH("on track",I2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="completed">
-      <formula>NOT(ISERROR(SEARCH("completed",I2)))</formula>
+  <conditionalFormatting sqref="J2:J53">
+    <cfRule type="colorScale" priority="474">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H46">
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$I2="Overdue"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$I2="On Track"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$I2="Completed"</formula>
+  <conditionalFormatting sqref="K2:K53 G2:G53 I2:I53">
+    <cfRule type="colorScale" priority="475">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4923,13 +5744,13 @@
           <x14:formula1>
             <xm:f>Sheet1!$A$1:$A$200</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B46</xm:sqref>
+          <xm:sqref>B2:B53</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{108EF5FC-466A-4B97-8ABC-25ADC8D95A19}">
           <x14:formula1>
             <xm:f>Sheet1!$C$1:$C$20</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K46</xm:sqref>
+          <xm:sqref>K2:K53</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4939,10 +5760,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10BD4BA-98D5-40E7-AB4A-F2896DAC80D1}">
-  <dimension ref="A1:C13"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4952,76 +5774,96 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
